--- a/Project1-1/Phase3/GanntChartPhase3.xlsx
+++ b/Project1-1/Phase3/GanntChartPhase3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuanh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louismottet/Desktop/Maastricht DKE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD1D657A-07D4-AA45-AB0B-454262014341}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8646DBA3-69EE-2247-9F9B-AA25FCA9D2AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3C119B07-D244-3044-9B22-4571D9F60412}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{3C119B07-D244-3044-9B22-4571D9F60412}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,13 +133,6 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -197,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -207,112 +200,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB7B7B7"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FFB7B7B7"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right style="hair">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="hair">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFB7B7B7"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -320,75 +217,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,215 +580,216 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="11" max="17" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" ht="28" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" ht="28" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="23" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="23" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="5"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:17" ht="28" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:17" ht="28" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:17" ht="25" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="1:17" ht="28" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" ht="28" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:17" ht="22">
-      <c r="A7" s="7"/>
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="1:17" ht="28" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
     </row>
-    <row r="8" spans="1:17" ht="29" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:17" ht="28" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="17"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -925,5 +800,6 @@
     <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>